--- a/teaching/traditional_assets/database/data/indonesia/indonesia_brokerage_investment_banking.xlsx
+++ b/teaching/traditional_assets/database/data/indonesia/indonesia_brokerage_investment_banking.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ17"/>
+  <dimension ref="A1:AQ13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,121 +591,121 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.08625000000000001</v>
+        <v>0.04185</v>
       </c>
       <c r="E2">
-        <v>0.304</v>
+        <v>-0.0318</v>
       </c>
       <c r="G2">
-        <v>0.008146301954174314</v>
+        <v>0.0133626892681165</v>
       </c>
       <c r="H2">
-        <v>0.008146301954174314</v>
+        <v>0.0133626892681165</v>
       </c>
       <c r="I2">
-        <v>0.01082733696711563</v>
+        <v>-0.003445236459996145</v>
       </c>
       <c r="J2">
-        <v>0.009885976218920569</v>
+        <v>-0.003092077470264384</v>
       </c>
       <c r="K2">
-        <v>47.653</v>
+        <v>-32.813</v>
       </c>
       <c r="L2">
-        <v>0.0496731576484029</v>
+        <v>-0.03070302660560931</v>
       </c>
       <c r="M2">
-        <v>6.640000000000001</v>
+        <v>9.692</v>
       </c>
       <c r="N2">
-        <v>0.002851192648732207</v>
+        <v>0.006262195515926859</v>
       </c>
       <c r="O2">
-        <v>0.139340650116467</v>
+        <v>-0.295370737207814</v>
       </c>
       <c r="P2">
-        <v>6.640000000000001</v>
+        <v>5.949999999999999</v>
       </c>
       <c r="Q2">
-        <v>0.002851192648732207</v>
+        <v>0.003844414292175486</v>
       </c>
       <c r="R2">
-        <v>0.139340650116467</v>
+        <v>-0.181330570200835</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>3.742</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.3860916219562526</v>
       </c>
       <c r="U2">
-        <v>198.018</v>
+        <v>220.817</v>
       </c>
       <c r="V2">
-        <v>0.08502823281877321</v>
+        <v>0.1426742908832461</v>
       </c>
       <c r="W2">
-        <v>0.05800904977375566</v>
+        <v>-0.04567307692307692</v>
       </c>
       <c r="X2">
-        <v>0.05154979727090633</v>
+        <v>0.03721853515997034</v>
       </c>
       <c r="Y2">
-        <v>0.006459252502849323</v>
+        <v>-0.08289161208304727</v>
       </c>
       <c r="Z2">
-        <v>0.9481382282159112</v>
+        <v>0.9922686897253514</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.05046477484790566</v>
+        <v>0.0371959585047836</v>
       </c>
       <c r="AC2">
-        <v>-0.050214383051572</v>
+        <v>-0.03826152635054687</v>
       </c>
       <c r="AD2">
-        <v>328.685</v>
+        <v>247.685</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>328.685</v>
+        <v>247.685</v>
       </c>
       <c r="AG2">
-        <v>130.667</v>
+        <v>26.86799999999999</v>
       </c>
       <c r="AH2">
-        <v>0.1236804030802981</v>
+        <v>0.1379564828713619</v>
       </c>
       <c r="AI2">
-        <v>0.2167384875091081</v>
+        <v>0.2015034352030004</v>
       </c>
       <c r="AJ2">
-        <v>0.05312709771877975</v>
+        <v>0.01706372795585837</v>
       </c>
       <c r="AK2">
-        <v>0.09910374542942024</v>
+        <v>0.02664503435253796</v>
       </c>
       <c r="AL2">
-        <v>3.551</v>
+        <v>2.005</v>
       </c>
       <c r="AM2">
-        <v>-5.539</v>
+        <v>-5.907</v>
       </c>
       <c r="AN2">
-        <v>28.55399183389801</v>
+        <v>-81.36826544021025</v>
       </c>
       <c r="AO2">
-        <v>2.925091523514503</v>
+        <v>-1.83640897755611</v>
       </c>
       <c r="AP2">
-        <v>11.35148987924594</v>
+        <v>-8.826544021024965</v>
       </c>
       <c r="AQ2">
-        <v>-1.875248239754469</v>
+        <v>0.6233282546131708</v>
       </c>
     </row>
     <row r="3">
@@ -716,7 +716,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PT  Panin Sekuritas Tbk (IDX:PANS)</t>
+          <t>PT Yulie Sekuritas Indonesia Tbk (IDX:YULE)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -724,122 +724,107 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
-      <c r="D3">
-        <v>-0.0342</v>
-      </c>
-      <c r="E3">
-        <v>-0.117</v>
-      </c>
       <c r="G3">
-        <v>0.3612903225806451</v>
+        <v>-0</v>
       </c>
       <c r="H3">
-        <v>0.3612903225806451</v>
+        <v>-0</v>
       </c>
       <c r="I3">
-        <v>0.5096774193548387</v>
+        <v>-0</v>
       </c>
       <c r="J3">
-        <v>0.4306024667931688</v>
+        <v>-0</v>
       </c>
       <c r="K3">
-        <v>11.5</v>
+        <v>-1.76</v>
       </c>
       <c r="L3">
-        <v>0.3709677419354839</v>
+        <v>1.303703703703704</v>
       </c>
       <c r="M3">
-        <v>5.04</v>
+        <v>3.72</v>
       </c>
       <c r="N3">
-        <v>0.06875852660300137</v>
+        <v>0.07815126050420168</v>
       </c>
       <c r="O3">
-        <v>0.4382608695652174</v>
+        <v>-2.113636363636364</v>
       </c>
       <c r="P3">
-        <v>5.04</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.06875852660300137</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>0.4382608695652174</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>3.72</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>1.43</v>
+        <v>2.87</v>
       </c>
       <c r="V3">
-        <v>0.01950886766712142</v>
+        <v>0.06029411764705882</v>
       </c>
       <c r="W3">
-        <v>0.139225181598063</v>
+        <v>-0.06285714285714286</v>
       </c>
       <c r="X3">
-        <v>0.05980988283135988</v>
+        <v>0.03667539916908493</v>
       </c>
       <c r="Y3">
-        <v>0.07941529876670309</v>
+        <v>-0.0995325420262278</v>
       </c>
       <c r="Z3">
-        <v>0.3076892537046779</v>
+        <v>-0.06658446362515413</v>
       </c>
       <c r="AA3">
-        <v>0.1324917516509835</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.05192136942741206</v>
+        <v>0.03667539916908493</v>
       </c>
       <c r="AC3">
-        <v>0.08057038222357142</v>
+        <v>-0.03667539916908493</v>
       </c>
       <c r="AD3">
-        <v>30.7</v>
+        <v>0</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>30.7</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>29.27</v>
+        <v>-2.87</v>
       </c>
       <c r="AH3">
-        <v>0.2951923076923077</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.2444267515923567</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.2853660914497417</v>
+        <v>-0.06416275430359937</v>
       </c>
       <c r="AK3">
-        <v>0.2357252154304582</v>
+        <v>-0.1725796752856284</v>
       </c>
       <c r="AL3">
-        <v>2.67</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>2.58</v>
-      </c>
-      <c r="AN3">
-        <v>1.883435582822086</v>
-      </c>
-      <c r="AO3">
-        <v>5.917602996254682</v>
-      </c>
-      <c r="AP3">
-        <v>1.795705521472392</v>
+        <v>-0.26</v>
       </c>
       <c r="AQ3">
-        <v>6.124031007751938</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -850,7 +835,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PT Reliance Sekuritas Indonesia Tbk (IDX:RELI)</t>
+          <t>PT Panca Global Kapital Tbk (IDX:PEGE)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -858,77 +843,74 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
-      <c r="D4">
-        <v>-0.145</v>
-      </c>
-      <c r="E4">
-        <v>-0.237</v>
-      </c>
       <c r="G4">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K4">
-        <v>0.389</v>
+        <v>-4.95</v>
       </c>
       <c r="L4">
-        <v>0.1594262295081967</v>
+        <v>1.004056795131846</v>
       </c>
       <c r="M4">
-        <v>-0</v>
+        <v>1.14</v>
       </c>
       <c r="N4">
-        <v>-0</v>
+        <v>0.04115523465703971</v>
       </c>
       <c r="O4">
-        <v>-0</v>
+        <v>-0.2303030303030303</v>
       </c>
       <c r="P4">
-        <v>-0</v>
+        <v>1.14</v>
       </c>
       <c r="Q4">
-        <v>-0</v>
+        <v>0.04115523465703971</v>
       </c>
       <c r="R4">
-        <v>-0</v>
+        <v>-0.2303030303030303</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
       <c r="U4">
-        <v>8.07</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="V4">
-        <v>0.2988888888888889</v>
+        <v>0.3328519855595668</v>
       </c>
       <c r="W4">
-        <v>0.01215625</v>
+        <v>-0.1204379562043796</v>
       </c>
       <c r="X4">
-        <v>0.05010271904011086</v>
+        <v>0.03667539916908493</v>
       </c>
       <c r="Y4">
-        <v>-0.03794646904011086</v>
+        <v>-0.1571133553734645</v>
       </c>
       <c r="Z4">
-        <v>0.09914668833807395</v>
+        <v>-0.1648829431438127</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.05010271904011086</v>
+        <v>0.03667539916908493</v>
       </c>
       <c r="AC4">
-        <v>-0.05010271904011086</v>
+        <v>-0.03667539916908493</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -940,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>-8.07</v>
+        <v>-9.220000000000001</v>
       </c>
       <c r="AH4">
         <v>0</v>
@@ -949,16 +931,16 @@
         <v>0</v>
       </c>
       <c r="AJ4">
-        <v>-0.4263074484944533</v>
+        <v>-0.498917748917749</v>
       </c>
       <c r="AK4">
-        <v>-0.3136416634279052</v>
+        <v>-0.3860971524288107</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
-        <v>-2.75</v>
+        <v>-1.15</v>
       </c>
       <c r="AQ4">
         <v>-0</v>
@@ -972,7 +954,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PT Lippo Securities Tbk (IDX:LPPS)</t>
+          <t>PT Lenox Pasifik Investama Tbk (IDX:LPPS)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -980,26 +962,23 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
-      <c r="D5">
-        <v>0.00232</v>
-      </c>
       <c r="G5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K5">
-        <v>-0.831</v>
+        <v>-3.8</v>
       </c>
       <c r="L5">
-        <v>-1.682186234817814</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="M5">
         <v>-0</v>
@@ -1023,31 +1002,31 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>2.43</v>
+        <v>0.202</v>
       </c>
       <c r="V5">
-        <v>0.1630872483221477</v>
+        <v>0.01231707317073171</v>
       </c>
       <c r="W5">
-        <v>-0.01036159600997506</v>
+        <v>-0.04567307692307692</v>
       </c>
       <c r="X5">
-        <v>0.05010271904011086</v>
+        <v>0.03667539916908493</v>
       </c>
       <c r="Y5">
-        <v>-0.06046431505008593</v>
+        <v>-0.08234847609216185</v>
       </c>
       <c r="Z5">
-        <v>0.006379956089371044</v>
+        <v>-0.002845021212877464</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.05010271904011086</v>
+        <v>0.03667539916908493</v>
       </c>
       <c r="AC5">
-        <v>-0.05010271904011086</v>
+        <v>-0.03667539916908493</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -1059,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>-2.43</v>
+        <v>-0.202</v>
       </c>
       <c r="AH5">
         <v>0</v>
@@ -1068,16 +1047,16 @@
         <v>0</v>
       </c>
       <c r="AJ5">
-        <v>-0.1948676824378509</v>
+        <v>-0.01247067539202371</v>
       </c>
       <c r="AK5">
-        <v>-0.03081019399011031</v>
+        <v>-0.00281737286953611</v>
       </c>
       <c r="AL5">
         <v>0</v>
       </c>
       <c r="AM5">
-        <v>-0.187</v>
+        <v>-0.06</v>
       </c>
       <c r="AQ5">
         <v>-0</v>
@@ -1091,7 +1070,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PT Himalaya Energi Perkasa Tbk (IDX:HADE)</t>
+          <t>PT Reliance Sekuritas Indonesia Tbk (IDX:RELI)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1100,10 +1079,10 @@
         </is>
       </c>
       <c r="D6">
-        <v>-0.341</v>
+        <v>-0.238</v>
       </c>
       <c r="E6">
-        <v>0.263</v>
+        <v>-0.0353</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1118,10 +1097,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.285</v>
+        <v>1.81</v>
       </c>
       <c r="L6">
-        <v>1.104651162790698</v>
+        <v>1.256944444444444</v>
       </c>
       <c r="M6">
         <v>-0</v>
@@ -1145,61 +1124,64 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0.082</v>
+        <v>12.2</v>
       </c>
       <c r="V6">
-        <v>0.01074705111402359</v>
+        <v>0.2904761904761904</v>
       </c>
       <c r="W6">
-        <v>0.06627906976744186</v>
+        <v>0.05355029585798817</v>
       </c>
       <c r="X6">
-        <v>0.05010271904011086</v>
+        <v>0.03671141085489664</v>
       </c>
       <c r="Y6">
-        <v>0.01617635072733099</v>
+        <v>0.01683888500309153</v>
       </c>
       <c r="Z6">
-        <v>0.0606488011283498</v>
+        <v>0.05596579867858532</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.05010271904011086</v>
+        <v>0.0367161551923214</v>
       </c>
       <c r="AC6">
-        <v>-0.05010271904011086</v>
+        <v>-0.0367161551923214</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>0.065</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>0.065</v>
       </c>
       <c r="AG6">
-        <v>-0.082</v>
+        <v>-12.135</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>0.001545227623915369</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>0.001891459333624327</v>
       </c>
       <c r="AJ6">
-        <v>-0.01086380498145204</v>
+        <v>-0.4063284781516825</v>
       </c>
       <c r="AK6">
-        <v>-0.01684470008216927</v>
+        <v>-0.5474847732912249</v>
       </c>
       <c r="AL6">
         <v>0</v>
       </c>
       <c r="AM6">
-        <v>0</v>
+        <v>-1.51</v>
+      </c>
+      <c r="AQ6">
+        <v>-0</v>
       </c>
     </row>
     <row r="7">
@@ -1210,7 +1192,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PT Panca Global Kapital Tbk (IDX:PEGE)</t>
+          <t>PT Minna Padi Investama Sekuritas Tbk (IDX:PADI)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1218,113 +1200,101 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
-      <c r="D7">
-        <v>0.28</v>
-      </c>
-      <c r="E7">
-        <v>0.287</v>
-      </c>
       <c r="G7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K7">
-        <v>6.68</v>
+        <v>-14.2</v>
       </c>
       <c r="L7">
-        <v>1.079159935379644</v>
+        <v>1.118110236220472</v>
       </c>
       <c r="M7">
-        <v>1.6</v>
+        <v>-0</v>
       </c>
       <c r="N7">
-        <v>0.0356347438752784</v>
+        <v>-0</v>
       </c>
       <c r="O7">
-        <v>0.2395209580838324</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>1.6</v>
+        <v>-0</v>
       </c>
       <c r="Q7">
-        <v>0.0356347438752784</v>
+        <v>-0</v>
       </c>
       <c r="R7">
-        <v>0.2395209580838324</v>
+        <v>0</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
       <c r="U7">
-        <v>11.2</v>
+        <v>0.266</v>
       </c>
       <c r="V7">
-        <v>0.2494432071269488</v>
+        <v>0.006535626535626535</v>
       </c>
       <c r="W7">
-        <v>0.1947521865889213</v>
+        <v>-0.3678756476683938</v>
       </c>
       <c r="X7">
-        <v>0.05010271904011086</v>
+        <v>0.03721853515997034</v>
       </c>
       <c r="Y7">
-        <v>0.1446494675488104</v>
+        <v>-0.4050941828283641</v>
       </c>
       <c r="Z7">
-        <v>0.3598837209302327</v>
+        <v>-0.3249079001227998</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.05010271904011086</v>
+        <v>0.0371959585047836</v>
       </c>
       <c r="AC7">
-        <v>-0.05010271904011086</v>
+        <v>-0.0371959585047836</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AG7">
-        <v>-11.2</v>
+        <v>0.6839999999999999</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>0.02280912364945978</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>0.04834605597964377</v>
       </c>
       <c r="AJ7">
-        <v>-0.3323442136498516</v>
+        <v>0.0165281268122946</v>
       </c>
       <c r="AK7">
-        <v>-0.3745819397993311</v>
+        <v>0.03528683450268262</v>
       </c>
       <c r="AL7">
         <v>0</v>
       </c>
       <c r="AM7">
-        <v>-1.44</v>
-      </c>
-      <c r="AQ7">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1335,7 +1305,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PT Yulie Sekuritas Indonesia Tbk (IDX:YULE)</t>
+          <t>PT Pacific Strategic Financial Tbk (IDX:APIC)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1343,26 +1313,29 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
+      <c r="D8">
+        <v>1.099</v>
+      </c>
       <c r="E8">
-        <v>0.524</v>
+        <v>0.494</v>
       </c>
       <c r="G8">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.739</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="L8">
-        <v>-52.78571428571428</v>
+        <v>0.05578539107950874</v>
       </c>
       <c r="M8">
         <v>-0</v>
@@ -1386,61 +1359,61 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>7.73</v>
+        <v>24.8</v>
       </c>
       <c r="V8">
-        <v>0.2072386058981233</v>
+        <v>0.03729323308270677</v>
       </c>
       <c r="W8">
-        <v>0.03053719008264463</v>
+        <v>0.07033414832925836</v>
       </c>
       <c r="X8">
-        <v>0.05010582588183742</v>
+        <v>0.03903729921017703</v>
       </c>
       <c r="Y8">
-        <v>-0.01956863579919279</v>
+        <v>0.03129684911908132</v>
       </c>
       <c r="Z8">
-        <v>-0.0005785123966942149</v>
+        <v>1.077298050139276</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.0501054044576601</v>
+        <v>0.03826152635054687</v>
       </c>
       <c r="AC8">
-        <v>-0.0501054044576601</v>
+        <v>-0.03826152635054687</v>
       </c>
       <c r="AD8">
-        <v>0.005</v>
+        <v>67.5</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>0.005</v>
+        <v>67.5</v>
       </c>
       <c r="AG8">
-        <v>-7.725000000000001</v>
+        <v>42.7</v>
       </c>
       <c r="AH8">
-        <v>0.0001340302908457311</v>
+        <v>0.09215017064846416</v>
       </c>
       <c r="AI8">
-        <v>0.0001785395465095519</v>
+        <v>0.3407370015143867</v>
       </c>
       <c r="AJ8">
-        <v>-0.2612003381234151</v>
+        <v>0.06033630069238378</v>
       </c>
       <c r="AK8">
-        <v>-0.3810110974106042</v>
+        <v>0.2463935372186959</v>
       </c>
       <c r="AL8">
         <v>0</v>
       </c>
       <c r="AM8">
-        <v>-1.05</v>
+        <v>-1.41</v>
       </c>
       <c r="AQ8">
         <v>-0</v>
@@ -1454,7 +1427,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PT Minna Padi Investama Sekuritas Tbk (IDX:PADI)</t>
+          <t>PT Kresna Graha Investama Tbk (IDX:KREN)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1462,32 +1435,35 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
+      <c r="D9">
+        <v>1.436</v>
+      </c>
       <c r="G9">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>-1.68</v>
+        <v>-14.7</v>
       </c>
       <c r="L9">
-        <v>2.393162393162393</v>
+        <v>-0.01846965699208443</v>
       </c>
       <c r="M9">
-        <v>-0</v>
+        <v>0.022</v>
       </c>
       <c r="N9">
-        <v>-0</v>
+        <v>0.0001998183469573115</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>-0.001496598639455782</v>
       </c>
       <c r="P9">
         <v>-0</v>
@@ -1499,64 +1475,70 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>0.022</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
       </c>
       <c r="U9">
-        <v>0.572</v>
+        <v>25</v>
       </c>
       <c r="V9">
-        <v>0.002640812557710065</v>
+        <v>0.2270663033605813</v>
       </c>
       <c r="W9">
-        <v>-0.04528301886792453</v>
+        <v>-0.1195121951219512</v>
       </c>
       <c r="X9">
-        <v>0.05021614314739105</v>
+        <v>0.04039507193538384</v>
       </c>
       <c r="Y9">
-        <v>-0.09549916201531558</v>
+        <v>-0.159907267057335</v>
       </c>
       <c r="Z9">
-        <v>-0.01972464175330148</v>
+        <v>7.394091415830546</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.05016851686403313</v>
+        <v>0.04031053889162992</v>
       </c>
       <c r="AC9">
-        <v>-0.05016851686403313</v>
+        <v>-0.04031053889162992</v>
       </c>
       <c r="AD9">
-        <v>1.06</v>
+        <v>17.6</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>1.06</v>
+        <v>17.6</v>
       </c>
       <c r="AG9">
-        <v>0.4880000000000001</v>
+        <v>-7.399999999999999</v>
       </c>
       <c r="AH9">
-        <v>0.004869980703850042</v>
+        <v>0.1378230227094754</v>
       </c>
       <c r="AI9">
-        <v>0.02672718103883005</v>
+        <v>0.08778054862842893</v>
       </c>
       <c r="AJ9">
-        <v>0.002247936320754717</v>
+        <v>-0.07205452775073028</v>
       </c>
       <c r="AK9">
-        <v>0.01248465002046664</v>
+        <v>-0.04216524216524216</v>
       </c>
       <c r="AL9">
         <v>0</v>
       </c>
       <c r="AM9">
-        <v>0</v>
+        <v>-1.88</v>
+      </c>
+      <c r="AQ9">
+        <v>-0</v>
       </c>
     </row>
     <row r="10">
@@ -1567,7 +1549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PT Kresna Graha Investama Tbk (IDX:KREN)</t>
+          <t>PT MNC Kapital Indonesia Tbk (IDX:BCAP)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1576,10 +1558,10 @@
         </is>
       </c>
       <c r="D10">
-        <v>1.195</v>
+        <v>0.04679999999999999</v>
       </c>
       <c r="E10">
-        <v>0.364</v>
+        <v>-0.346</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1594,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>26</v>
+        <v>0.389</v>
       </c>
       <c r="L10">
-        <v>0.03692657292998153</v>
+        <v>0.003855302279484638</v>
       </c>
       <c r="M10">
         <v>-0</v>
@@ -1621,64 +1603,61 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>23.1</v>
+        <v>123.3</v>
       </c>
       <c r="V10">
-        <v>0.03524027459954233</v>
+        <v>0.3225215799110646</v>
       </c>
       <c r="W10">
-        <v>0.3019744483159117</v>
+        <v>0.001085985482970408</v>
       </c>
       <c r="X10">
-        <v>0.05053054844558608</v>
+        <v>0.0435410891307168</v>
       </c>
       <c r="Y10">
-        <v>0.2514438998703257</v>
+        <v>-0.0424551036477464</v>
       </c>
       <c r="Z10">
-        <v>9.833798882681565</v>
+        <v>0.2490743026413231</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.050214383051572</v>
+        <v>0.0405969517022948</v>
       </c>
       <c r="AC10">
-        <v>-0.050214383051572</v>
+        <v>-0.0405969517022948</v>
       </c>
       <c r="AD10">
-        <v>12.1</v>
+        <v>112.8</v>
       </c>
       <c r="AE10">
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>12.1</v>
+        <v>112.8</v>
       </c>
       <c r="AG10">
-        <v>-11</v>
+        <v>-10.5</v>
       </c>
       <c r="AH10">
-        <v>0.01812462552426602</v>
+        <v>0.227832761058372</v>
       </c>
       <c r="AI10">
-        <v>0.05328049317481286</v>
+        <v>0.2478576137112722</v>
       </c>
       <c r="AJ10">
-        <v>-0.01706749418153608</v>
+        <v>-0.02824098977945132</v>
       </c>
       <c r="AK10">
-        <v>-0.05392156862745099</v>
+        <v>-0.03164556962025317</v>
       </c>
       <c r="AL10">
         <v>0</v>
       </c>
       <c r="AM10">
-        <v>-1.1</v>
-      </c>
-      <c r="AQ10">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1689,7 +1668,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PT Pacific Strategic Financial Tbk (IDX:APIC)</t>
+          <t>PT Trimegah Sekuritas Indonesia Tbk (IDX:TRIM)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1698,10 +1677,10 @@
         </is>
       </c>
       <c r="D11">
-        <v>0.677</v>
+        <v>0.0369</v>
       </c>
       <c r="E11">
-        <v>0.356</v>
+        <v>-0.0283</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1716,10 +1695,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>6.41</v>
+        <v>1.99</v>
       </c>
       <c r="L11">
-        <v>0.1375536480686695</v>
+        <v>0.0839662447257384</v>
       </c>
       <c r="M11">
         <v>-0</v>
@@ -1743,61 +1722,61 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>15.6</v>
+        <v>19.8</v>
       </c>
       <c r="V11">
-        <v>0.02668491276086212</v>
+        <v>0.4116424116424117</v>
       </c>
       <c r="W11">
-        <v>0.05800904977375566</v>
+        <v>0.03355817875210793</v>
       </c>
       <c r="X11">
-        <v>0.05154979727090633</v>
+        <v>0.05583248723626578</v>
       </c>
       <c r="Y11">
-        <v>0.006459252502849323</v>
+        <v>-0.02227430848415786</v>
       </c>
       <c r="Z11">
-        <v>0.356269113149847</v>
+        <v>0.2824791418355184</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.05046477484790566</v>
+        <v>0.04858493760443545</v>
       </c>
       <c r="AC11">
-        <v>-0.05046477484790566</v>
+        <v>-0.04858493760443545</v>
       </c>
       <c r="AD11">
-        <v>36.5</v>
+        <v>39.6</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>36.5</v>
+        <v>39.6</v>
       </c>
       <c r="AG11">
-        <v>20.9</v>
+        <v>19.8</v>
       </c>
       <c r="AH11">
-        <v>0.0587667042344228</v>
+        <v>0.451539338654504</v>
       </c>
       <c r="AI11">
-        <v>0.2225609756097561</v>
+        <v>0.4142259414225942</v>
       </c>
       <c r="AJ11">
-        <v>0.03451692815854665</v>
+        <v>0.2916053019145802</v>
       </c>
       <c r="AK11">
-        <v>0.1408355795148248</v>
+        <v>0.2612137203166227</v>
       </c>
       <c r="AL11">
         <v>0</v>
       </c>
       <c r="AM11">
-        <v>-0.773</v>
+        <v>-1.29</v>
       </c>
       <c r="AQ11">
         <v>-0</v>
@@ -1811,7 +1790,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PT Trimegah Sekuritas Indonesia Tbk (IDX:TRIM)</t>
+          <t>PT  Panin Sekuritas Tbk (IDX:PANS)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1820,109 +1799,118 @@
         </is>
       </c>
       <c r="D12">
-        <v>0.118</v>
-      </c>
-      <c r="E12">
-        <v>0.304</v>
+        <v>-0.151</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>-0.2742857142857143</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>-0.2742857142857143</v>
       </c>
       <c r="K12">
-        <v>4.33</v>
+        <v>-6.28</v>
       </c>
       <c r="L12">
-        <v>0.1621722846441948</v>
+        <v>-0.5980952380952381</v>
       </c>
       <c r="M12">
-        <v>-0</v>
+        <v>4.81</v>
       </c>
       <c r="N12">
-        <v>-0</v>
+        <v>0.07276853252647504</v>
       </c>
       <c r="O12">
-        <v>-0</v>
+        <v>-0.7659235668789808</v>
       </c>
       <c r="P12">
-        <v>-0</v>
+        <v>4.81</v>
       </c>
       <c r="Q12">
-        <v>-0</v>
+        <v>0.07276853252647504</v>
       </c>
       <c r="R12">
-        <v>-0</v>
+        <v>-0.7659235668789808</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
       <c r="U12">
-        <v>23.4</v>
+        <v>2.23</v>
       </c>
       <c r="V12">
-        <v>0.3111702127659574</v>
+        <v>0.03373676248108926</v>
       </c>
       <c r="W12">
-        <v>0.08608349900596422</v>
+        <v>-0.06723768736616702</v>
       </c>
       <c r="X12">
-        <v>0.06489657389973841</v>
+        <v>0.03990350126928815</v>
       </c>
       <c r="Y12">
-        <v>0.02118692510622582</v>
+        <v>-0.1071411886354552</v>
       </c>
       <c r="Z12">
-        <v>0.3384030418250951</v>
+        <v>0.08559550012227929</v>
       </c>
       <c r="AA12">
-        <v>0</v>
+        <v>-0.02347762289068232</v>
       </c>
       <c r="AB12">
-        <v>0.05250306981991532</v>
+        <v>0.03945581056333661</v>
       </c>
       <c r="AC12">
-        <v>-0.05250306981991532</v>
+        <v>-0.06293343345401892</v>
       </c>
       <c r="AD12">
-        <v>48</v>
+        <v>9.17</v>
       </c>
       <c r="AE12">
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>48</v>
+        <v>9.17</v>
       </c>
       <c r="AG12">
-        <v>24.6</v>
+        <v>6.94</v>
       </c>
       <c r="AH12">
-        <v>0.3896103896103896</v>
+        <v>0.1218280855586555</v>
       </c>
       <c r="AI12">
-        <v>0.4473438956197577</v>
+        <v>0.1041217213580107</v>
       </c>
       <c r="AJ12">
-        <v>0.2464929859719439</v>
+        <v>0.09501642935377876</v>
       </c>
       <c r="AK12">
-        <v>0.2932061978545888</v>
+        <v>0.08084808946877911</v>
       </c>
       <c r="AL12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM12">
-        <v>-1.38</v>
+        <v>1.895</v>
+      </c>
+      <c r="AN12">
+        <v>-3.789256198347108</v>
+      </c>
+      <c r="AO12">
+        <v>-1.44</v>
+      </c>
+      <c r="AP12">
+        <v>-2.867768595041322</v>
       </c>
       <c r="AQ12">
-        <v>-0</v>
+        <v>-1.519788918205805</v>
       </c>
     </row>
     <row r="13">
@@ -1933,7 +1921,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PT MNC Kapital Indonesia Tbk (IDX:BCAP)</t>
+          <t>PT Surya Fajar Capital Tbk (IDX:SFAN)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1941,29 +1929,23 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
-      <c r="D13">
-        <v>0.182</v>
-      </c>
-      <c r="E13">
-        <v>0.657</v>
-      </c>
       <c r="G13">
-        <v>0</v>
+        <v>-0.530379746835443</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>-0.530379746835443</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>-1.015189873417722</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>-1.015189873417722</v>
       </c>
       <c r="K13">
-        <v>8.699999999999999</v>
+        <v>0.058</v>
       </c>
       <c r="L13">
-        <v>0.07493540051679587</v>
+        <v>0.07341772151898734</v>
       </c>
       <c r="M13">
         <v>-0</v>
@@ -1987,537 +1969,73 @@
         <v>0</v>
       </c>
       <c r="U13">
-        <v>90.90000000000001</v>
+        <v>0.929</v>
       </c>
       <c r="V13">
-        <v>0.2166865315852205</v>
+        <v>0.009134709931170108</v>
       </c>
       <c r="W13">
-        <v>0.02607132154629907</v>
+        <v>0.0058</v>
       </c>
       <c r="X13">
-        <v>0.0591359631933733</v>
+        <v>0.03667539916908493</v>
       </c>
       <c r="Y13">
-        <v>-0.03306464164707423</v>
+        <v>-0.03087539916908493</v>
       </c>
       <c r="Z13">
-        <v>0.3016367887763056</v>
+        <v>0.0415658213195833</v>
       </c>
       <c r="AA13">
-        <v>0</v>
+        <v>-0.0421972008839314</v>
       </c>
       <c r="AB13">
-        <v>0.05389179657826686</v>
+        <v>0.03667539916908493</v>
       </c>
       <c r="AC13">
-        <v>-0.05389179657826686</v>
+        <v>-0.07887260005301633</v>
       </c>
       <c r="AD13">
-        <v>163.5</v>
+        <v>0</v>
       </c>
       <c r="AE13">
         <v>0</v>
       </c>
       <c r="AF13">
-        <v>163.5</v>
+        <v>0</v>
       </c>
       <c r="AG13">
-        <v>72.59999999999999</v>
+        <v>-0.929</v>
       </c>
       <c r="AH13">
-        <v>0.2804459691252144</v>
+        <v>0</v>
       </c>
       <c r="AI13">
-        <v>0.286942786942787</v>
+        <v>0</v>
       </c>
       <c r="AJ13">
-        <v>0.1475309896362528</v>
+        <v>-0.009218922110527831</v>
       </c>
       <c r="AK13">
-        <v>0.1515974107329296</v>
+        <v>-0.07509498019561879</v>
       </c>
       <c r="AL13">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="AM13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Indonesia</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>PT Majapahit Inti Corpora Tbk (IDX:AKSI)</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Brokerage &amp; Investment Banking</t>
-        </is>
-      </c>
-      <c r="D14">
-        <v>1.319</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>2.87</v>
-      </c>
-      <c r="L14">
-        <v>0.1176229508196721</v>
-      </c>
-      <c r="M14">
-        <v>-0</v>
-      </c>
-      <c r="N14">
-        <v>-0</v>
-      </c>
-      <c r="O14">
-        <v>-0</v>
-      </c>
-      <c r="P14">
-        <v>-0</v>
-      </c>
-      <c r="Q14">
-        <v>-0</v>
-      </c>
-      <c r="R14">
-        <v>-0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>1.88</v>
-      </c>
-      <c r="V14">
-        <v>0.03164983164983165</v>
-      </c>
-      <c r="W14">
-        <v>0.4799331103678929</v>
-      </c>
-      <c r="X14">
-        <v>0.05269745491911007</v>
-      </c>
-      <c r="Y14">
-        <v>0.4272356554487828</v>
-      </c>
-      <c r="Z14">
-        <v>3.19371727748691</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <v>0.0566506181654194</v>
-      </c>
-      <c r="AC14">
-        <v>-0.0566506181654194</v>
-      </c>
-      <c r="AD14">
-        <v>6.65</v>
-      </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AF14">
-        <v>6.65</v>
-      </c>
-      <c r="AG14">
-        <v>4.77</v>
-      </c>
-      <c r="AH14">
-        <v>0.1006813020439061</v>
-      </c>
-      <c r="AI14">
-        <v>0.4203539823008849</v>
-      </c>
-      <c r="AJ14">
-        <v>0.07433380084151474</v>
-      </c>
-      <c r="AK14">
-        <v>0.3421807747489239</v>
-      </c>
-      <c r="AL14">
-        <v>0</v>
-      </c>
-      <c r="AM14">
-        <v>-0.044</v>
-      </c>
-      <c r="AQ14">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Indonesia</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>PT Onix Capital Tbk (IDX:OCAP)</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Brokerage &amp; Investment Banking</t>
-        </is>
-      </c>
-      <c r="D15">
-        <v>0.0545</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0.244</v>
-      </c>
-      <c r="L15">
-        <v>0.4080267558528428</v>
-      </c>
-      <c r="M15">
-        <v>-0</v>
-      </c>
-      <c r="N15">
-        <v>-0</v>
-      </c>
-      <c r="O15">
-        <v>-0</v>
-      </c>
-      <c r="P15">
-        <v>-0</v>
-      </c>
-      <c r="Q15">
-        <v>-0</v>
-      </c>
-      <c r="R15">
-        <v>-0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>0.044</v>
-      </c>
-      <c r="V15">
-        <v>0.009734513274336283</v>
-      </c>
-      <c r="W15">
-        <v>-0.02121739130434783</v>
-      </c>
-      <c r="X15">
-        <v>0.120351709778416</v>
-      </c>
-      <c r="Y15">
-        <v>-0.1415691010827638</v>
-      </c>
-      <c r="Z15">
-        <v>0.314736842105263</v>
-      </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <v>0.06026184827102144</v>
-      </c>
-      <c r="AC15">
-        <v>-0.06026184827102144</v>
-      </c>
-      <c r="AD15">
-        <v>13.7</v>
-      </c>
-      <c r="AE15">
-        <v>0</v>
-      </c>
-      <c r="AF15">
-        <v>13.7</v>
-      </c>
-      <c r="AG15">
-        <v>13.656</v>
-      </c>
-      <c r="AH15">
-        <v>0.75192096597146</v>
-      </c>
-      <c r="AI15">
-        <v>7.611111111111115</v>
-      </c>
-      <c r="AJ15">
-        <v>0.7513204225352113</v>
-      </c>
-      <c r="AK15">
-        <v>7.77676537585422</v>
-      </c>
-      <c r="AL15">
-        <v>0</v>
-      </c>
-      <c r="AM15">
-        <v>-0.125</v>
-      </c>
-      <c r="AQ15">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Indonesia</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>PT. Pool Advista Indonesia Tbk (IDX:POOL)</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Brokerage &amp; Investment Banking</t>
-        </is>
-      </c>
-      <c r="D16">
-        <v>-0.154</v>
-      </c>
-      <c r="G16">
-        <v>-7.068965517241378</v>
-      </c>
-      <c r="H16">
-        <v>-7.068965517241378</v>
-      </c>
-      <c r="I16">
-        <v>-10.21551724137931</v>
-      </c>
-      <c r="J16">
-        <v>-10.21551724137931</v>
-      </c>
-      <c r="K16">
-        <v>-18</v>
-      </c>
-      <c r="L16">
-        <v>-38.79310344827586</v>
-      </c>
-      <c r="M16">
-        <v>-0</v>
-      </c>
-      <c r="N16">
-        <v>-0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>-0</v>
-      </c>
-      <c r="Q16">
-        <v>-0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>6.85</v>
-      </c>
-      <c r="V16">
-        <v>0.2604562737642586</v>
-      </c>
-      <c r="W16">
-        <v>-0.3284671532846716</v>
-      </c>
-      <c r="X16">
-        <v>0.05236754759333571</v>
-      </c>
-      <c r="Y16">
-        <v>-0.3808347008780073</v>
-      </c>
-      <c r="Z16">
-        <v>0.008917931962329425</v>
-      </c>
-      <c r="AA16">
-        <v>-0.09110128771862387</v>
-      </c>
-      <c r="AB16">
-        <v>0.05130545592478412</v>
-      </c>
-      <c r="AC16">
-        <v>-0.142406743643408</v>
-      </c>
-      <c r="AD16">
-        <v>2.57</v>
-      </c>
-      <c r="AE16">
-        <v>0</v>
-      </c>
-      <c r="AF16">
-        <v>2.57</v>
-      </c>
-      <c r="AG16">
-        <v>-4.279999999999999</v>
-      </c>
-      <c r="AH16">
-        <v>0.08901974367855905</v>
-      </c>
-      <c r="AI16">
-        <v>0.04926202798543224</v>
-      </c>
-      <c r="AJ16">
-        <v>-0.1943687556766575</v>
-      </c>
-      <c r="AK16">
-        <v>-0.09443954104148278</v>
-      </c>
-      <c r="AL16">
-        <v>0.872</v>
-      </c>
-      <c r="AM16">
-        <v>0.872</v>
-      </c>
-      <c r="AN16">
-        <v>-0.6047058823529411</v>
-      </c>
-      <c r="AO16">
-        <v>-5.435779816513762</v>
-      </c>
-      <c r="AP16">
-        <v>1.007058823529412</v>
-      </c>
-      <c r="AQ16">
-        <v>-5.435779816513762</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Indonesia</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>PT Surya Fajar Capital Tbk (IDX:SFAN)</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Brokerage &amp; Investment Banking</t>
-        </is>
-      </c>
-      <c r="G17">
-        <v>-0.1493598862019915</v>
-      </c>
-      <c r="H17">
-        <v>-0.1493598862019915</v>
-      </c>
-      <c r="I17">
-        <v>-0.9573257467994312</v>
-      </c>
-      <c r="J17">
-        <v>-0.9573257467994312</v>
-      </c>
-      <c r="K17">
-        <v>0.017</v>
-      </c>
-      <c r="L17">
-        <v>0.02418207681365576</v>
-      </c>
-      <c r="M17">
-        <v>-0</v>
-      </c>
-      <c r="N17">
-        <v>-0</v>
-      </c>
-      <c r="O17">
-        <v>-0</v>
-      </c>
-      <c r="P17">
-        <v>-0</v>
-      </c>
-      <c r="Q17">
-        <v>-0</v>
-      </c>
-      <c r="R17">
-        <v>-0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>4.73</v>
-      </c>
-      <c r="V17">
-        <v>0.05754257907542579</v>
-      </c>
-      <c r="X17">
-        <v>0.05402195074319062</v>
-      </c>
-      <c r="AB17">
-        <v>0.05205694916138201</v>
-      </c>
-      <c r="AD17">
-        <v>13.9</v>
-      </c>
-      <c r="AE17">
-        <v>0</v>
-      </c>
-      <c r="AF17">
-        <v>13.9</v>
-      </c>
-      <c r="AG17">
-        <v>9.17</v>
-      </c>
-      <c r="AH17">
-        <v>0.1446409989594173</v>
-      </c>
-      <c r="AI17">
-        <v>0.5767634854771784</v>
-      </c>
-      <c r="AJ17">
-        <v>0.1003611688738098</v>
-      </c>
-      <c r="AK17">
-        <v>0.4734124935467218</v>
-      </c>
-      <c r="AL17">
-        <v>0.008999999999999999</v>
-      </c>
-      <c r="AM17">
-        <v>-0.142</v>
-      </c>
-      <c r="AN17">
-        <v>-25.78849721706865</v>
-      </c>
-      <c r="AO17">
-        <v>-74.77777777777779</v>
-      </c>
-      <c r="AP17">
-        <v>-17.01298701298701</v>
-      </c>
-      <c r="AQ17">
-        <v>4.739436619718311</v>
+        <v>-0.242</v>
+      </c>
+      <c r="AN13">
+        <v>-0</v>
+      </c>
+      <c r="AO13">
+        <v>-160.4</v>
+      </c>
+      <c r="AP13">
+        <v>1.488782051282051</v>
+      </c>
+      <c r="AQ13">
+        <v>3.31404958677686</v>
       </c>
     </row>
   </sheetData>
